--- a/biology/Zoologie/Abrocomidae/Abrocomidae.xlsx
+++ b/biology/Zoologie/Abrocomidae/Abrocomidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Abrocomidés (Abrocomidae) sont une famille de rongeurs appelés aussi rats-chinchillas[1],[2]. Deux genres subsistent de nos jours : Abrocoma et Cuscomys, redécouvert en 1997 par Louise Emmons[3]. Le genre Protabrocoma est éteint.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Abrocomidés (Abrocomidae) sont une famille de rongeurs appelés aussi rats-chinchillas,. Deux genres subsistent de nos jours : Abrocoma et Cuscomys, redécouvert en 1997 par Louise Emmons. Le genre Protabrocoma est éteint.
 Cette famille a été décrite pour la première fois en 1918 par le zoologiste américain Gerrit Smith Miller, Jr (1869-1956) et son compatriote paléontologue et zoologiste James Williams Gidley (1866-1931).
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (6 déc. 2012)[4] et ITIS      (6 déc. 2012)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (6 déc. 2012) et ITIS      (6 déc. 2012) :
 genre Abrocoma Waterhouse, 1837
 genre Cuscomys Emmons, 1999
-Selon Paleobiology Database                   (6 déc. 2012)[6] :
+Selon Paleobiology Database                   (6 déc. 2012) :
 † genre Protabrocoma</t>
         </is>
       </c>
@@ -546,14 +560,16 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (6 déc. 2012)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (6 déc. 2012) :
 genre Abrocoma
-Abrocoma bennettii - le Rat-chinchilla du Chili ou Rat-chinchilla de Bennett[2]
+Abrocoma bennettii - le Rat-chinchilla du Chili ou Rat-chinchilla de Bennett
 Abrocoma boliviensis
 Abrocoma budini
-Abrocoma cinerea - le Rat-chinchilla cendré[2]
+Abrocoma cinerea - le Rat-chinchilla cendré
 Abrocoma famatina
 Abrocoma schistacea
 Abrocoma uspallata
@@ -561,7 +577,7 @@
 genre Cuscomys
 Cuscomys ashaninka
 Cuscomys oblativa
-Selon NCBI  (6 déc. 2012)[7] :
+Selon NCBI  (6 déc. 2012) :
 genre Abrocoma
 Abrocoma bennettii
 Abrocoma cinerea</t>
